--- a/app/data/static/params/adygea_test.xlsx
+++ b/app/data/static/params/adygea_test.xlsx
@@ -347,7 +347,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S12" activeCellId="0" sqref="S12"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -406,7 +406,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>14</v>
@@ -451,9 +451,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>19</v>
@@ -498,9 +498,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>22</v>
@@ -545,9 +545,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>25</v>
@@ -592,9 +592,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>28</v>
@@ -639,9 +639,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>31</v>
